--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf04804c460b3f8d/Desktop/Projects/ProtractorDemo/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="11_F25DC773A252ABDACC10489D911E66025ADE58F3" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{816DED2E-8FAD-43FC-A9EC-A398FED0FAC9}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="11_F25DC773A252ABDACC10489D911E66025ADE58F3" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2C803782-6584-4F9D-8A24-80C7607679CA}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>userName</t>
   </si>
@@ -183,9 +183,6 @@
     <t>VacationType</t>
   </si>
   <si>
-    <t>CAN - Vacation</t>
-  </si>
-  <si>
     <t>startDate</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>2021-04-01</t>
-  </si>
-  <si>
     <t>Vacation leave</t>
   </si>
   <si>
@@ -210,13 +204,31 @@
     <t>UserPassword</t>
   </si>
   <si>
-    <t>John Smith</t>
-  </si>
-  <si>
-    <t>satyabrat2</t>
-  </si>
-  <si>
-    <t>8992/</t>
+    <t>LeaveURL</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/index.php/leave/assignLeave</t>
+  </si>
+  <si>
+    <t>CAN - Vacation</t>
+  </si>
+  <si>
+    <t>2021-04-05</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>SEB20212023</t>
+  </si>
+  <si>
+    <t>empNameVerify</t>
+  </si>
+  <si>
+    <t>Satya</t>
+  </si>
+  <si>
+    <t>Orange Test</t>
   </si>
 </sst>
 </file>
@@ -273,13 +285,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -584,14 +594,17 @@
     <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="60.9296875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.46484375" customWidth="1"/>
     <col min="29" max="30" width="9.9296875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="60.73046875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,25 +688,31 @@
         <v>48</v>
       </c>
       <c r="AC1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AF1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>57</v>
+      <c r="AJ1" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -731,7 +750,7 @@
         <v>37</v>
       </c>
       <c r="M2">
-        <v>89895</v>
+        <v>89897</v>
       </c>
       <c r="N2" t="s">
         <v>41</v>
@@ -742,8 +761,8 @@
       <c r="Q2">
         <v>50001</v>
       </c>
-      <c r="R2" t="s">
-        <v>60</v>
+      <c r="R2">
+        <v>89971</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -773,25 +792,31 @@
         <v>47</v>
       </c>
       <c r="AB2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>44289</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AC2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>59</v>
+      <c r="AD2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
